--- a/results_real_data_(2c).xlsx
+++ b/results_real_data_(2c).xlsx
@@ -10305,7 +10305,7 @@
         <v>-99.17644900000001</v>
       </c>
       <c r="H35">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -10409,7 +10409,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H39">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -10799,7 +10799,7 @@
         <v>-99.17695999999999</v>
       </c>
       <c r="H54">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -11111,7 +11111,7 @@
         <v>-99.17742699999999</v>
       </c>
       <c r="H66">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -11163,7 +11163,7 @@
         <v>-99.177272</v>
       </c>
       <c r="H68">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -11969,7 +11969,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H99">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -12983,7 +12983,7 @@
         <v>-99.1833</v>
       </c>
       <c r="H138">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -13477,7 +13477,7 @@
         <v>-99.181494</v>
       </c>
       <c r="H157">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -13815,7 +13815,7 @@
         <v>-99.183554</v>
       </c>
       <c r="H170">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -15219,7 +15219,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H224">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -15375,7 +15375,7 @@
         <v>-99.182385</v>
       </c>
       <c r="H230">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -15817,7 +15817,7 @@
         <v>-99.176395</v>
       </c>
       <c r="H247">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -16259,7 +16259,7 @@
         <v>-99.17807000000001</v>
       </c>
       <c r="H264">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -18781,7 +18781,7 @@
         <v>-99.176272</v>
       </c>
       <c r="H361">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -19483,7 +19483,7 @@
         <v>-99.18007</v>
       </c>
       <c r="H388">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -19821,7 +19821,7 @@
         <v>-99.176872</v>
       </c>
       <c r="H401">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -22161,7 +22161,7 @@
         <v>-99.17608</v>
       </c>
       <c r="H491">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -22447,7 +22447,7 @@
         <v>-99.178466</v>
       </c>
       <c r="H502">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -22629,7 +22629,7 @@
         <v>-99.183055</v>
       </c>
       <c r="H509">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -23097,7 +23097,7 @@
         <v>-99.176395</v>
       </c>
       <c r="H527">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -24319,7 +24319,7 @@
         <v>-99.18303899999999</v>
       </c>
       <c r="H574">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -25619,7 +25619,7 @@
         <v>-99.183554</v>
       </c>
       <c r="H624">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -25905,7 +25905,7 @@
         <v>-99.1833</v>
       </c>
       <c r="H635">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -26451,7 +26451,7 @@
         <v>-99.18007</v>
       </c>
       <c r="H656">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -27491,7 +27491,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H696">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -28323,7 +28323,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H728">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -28479,7 +28479,7 @@
         <v>-99.182782</v>
       </c>
       <c r="H734">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -28505,7 +28505,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H735">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -30039,7 +30039,7 @@
         <v>-99.17695999999999</v>
       </c>
       <c r="H794">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -30169,7 +30169,7 @@
         <v>-99.177272</v>
       </c>
       <c r="H799">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -30689,7 +30689,7 @@
         <v>-99.17742699999999</v>
       </c>
       <c r="H819">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -30793,7 +30793,7 @@
         <v>-99.18279699999999</v>
       </c>
       <c r="H823">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -31261,7 +31261,7 @@
         <v>-99.182782</v>
       </c>
       <c r="H841">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -32145,7 +32145,7 @@
         <v>-99.1833</v>
       </c>
       <c r="H875">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -33211,7 +33211,7 @@
         <v>-99.183554</v>
       </c>
       <c r="H916">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -34381,7 +34381,7 @@
         <v>-99.183055</v>
       </c>
       <c r="H961">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -34641,7 +34641,7 @@
         <v>-99.181494</v>
       </c>
       <c r="H971">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -34979,7 +34979,7 @@
         <v>-99.18279699999999</v>
       </c>
       <c r="H984">
-        <v>86</v>
+        <v>6</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -35083,7 +35083,7 @@
         <v>-99.18303899999999</v>
       </c>
       <c r="H988">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -35681,7 +35681,7 @@
         <v>-99.182782</v>
       </c>
       <c r="H1011">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -35863,7 +35863,7 @@
         <v>-99.18007</v>
       </c>
       <c r="H1018">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -37475,7 +37475,7 @@
         <v>-99.178466</v>
       </c>
       <c r="H1080">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -37553,7 +37553,7 @@
         <v>-99.17608</v>
       </c>
       <c r="H1083">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -38073,7 +38073,7 @@
         <v>-99.176272</v>
       </c>
       <c r="H1103">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -38359,7 +38359,7 @@
         <v>-99.176872</v>
       </c>
       <c r="H1114">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -39425,7 +39425,7 @@
         <v>-99.17644900000001</v>
       </c>
       <c r="H1155">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -39971,7 +39971,7 @@
         <v>-99.176395</v>
       </c>
       <c r="H1176">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -40361,7 +40361,7 @@
         <v>-99.17608</v>
       </c>
       <c r="H1191">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -40595,7 +40595,7 @@
         <v>-99.178466</v>
       </c>
       <c r="H1200">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -41921,7 +41921,7 @@
         <v>-99.176272</v>
       </c>
       <c r="H1251">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -42935,7 +42935,7 @@
         <v>-99.17807000000001</v>
       </c>
       <c r="H1290">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -43117,7 +43117,7 @@
         <v>-99.176872</v>
       </c>
       <c r="H1297">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -44391,7 +44391,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H1346">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -44573,7 +44573,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H1353">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -45015,7 +45015,7 @@
         <v>-99.182782</v>
       </c>
       <c r="H1370">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1371" spans="1:8">
@@ -45067,7 +45067,7 @@
         <v>-99.18325</v>
       </c>
       <c r="H1372">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1373" spans="1:8">
@@ -45197,7 +45197,7 @@
         <v>-99.186661</v>
       </c>
       <c r="H1377">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1378" spans="1:8">
@@ -46159,7 +46159,7 @@
         <v>-99.17644900000001</v>
       </c>
       <c r="H1414">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1415" spans="1:8">
@@ -46289,7 +46289,7 @@
         <v>-99.177272</v>
       </c>
       <c r="H1419">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1420" spans="1:8">
@@ -46419,7 +46419,7 @@
         <v>-99.17695999999999</v>
       </c>
       <c r="H1424">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425" spans="1:8">
@@ -47459,7 +47459,7 @@
         <v>-99.17807000000001</v>
       </c>
       <c r="H1464">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1465" spans="1:8">
@@ -47953,7 +47953,7 @@
         <v>-99.17742699999999</v>
       </c>
       <c r="H1483">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484" spans="1:8">
